--- a/web/admin/asset/download/new_template_project.xlsx
+++ b/web/admin/asset/download/new_template_project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>[VI] Tên</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>[EN] Mô tả</t>
-  </si>
-  <si>
-    <t>Hình đại diện</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hình ảnh </t>
   </si>
   <si>
     <t>Kiểu căn hộ</t>
@@ -132,13 +126,22 @@
     <t>stt</t>
   </si>
   <si>
-    <t>Project  new 1</t>
-  </si>
-  <si>
-    <t>Chung cư Hồ Chí Minh 133</t>
-  </si>
-  <si>
-    <t>Chung cư Hà Nội 233</t>
+    <t>Bộ sưu tập</t>
+  </si>
+  <si>
+    <t>Phối cảnh</t>
+  </si>
+  <si>
+    <t>Hình đại diện (1 hình duy nhất)</t>
+  </si>
+  <si>
+    <t>Hình sơ đồ Block/Khu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Tên dự án</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,9 +540,9 @@
     <col min="1" max="16384" width="19.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -566,69 +569,75 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -637,136 +646,79 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
         <v>1</v>
       </c>
-      <c r="P2" s="2">
+      <c r="R2" s="2">
         <v>300</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="S2" s="2">
         <v>200</v>
       </c>
-      <c r="R2" s="2">
+      <c r="T2" s="2">
         <v>200</v>
       </c>
-      <c r="S2" s="2">
+      <c r="U2" s="2">
         <v>2000</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="V2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" spans="1:25" ht="315" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
-        <v>300</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>200</v>
-      </c>
-      <c r="R3" s="2">
-        <v>200</v>
-      </c>
-      <c r="S3" s="2">
-        <v>2000</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>23</v>
-      </c>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
